--- a/2025/10/2025-10-24/24_ai.full_fixtures.xlsx
+++ b/2025/10/2025-10-24/24_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,28 +488,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Riga FC  - FK Tukums 2000: 16:00</t>
+          <t>Bukovyna Chernivtsi ✓ - UCSA Tarasivka: 4:1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.62</v>
+        <v>1.75</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>Bukovyna Chernivtsi</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>75%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -523,31 +527,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al-Faisaly SC  - Al-Ahli (Amman): 17:30</t>
+          <t>Riga FC  - FK Tukums 2000: 0:0</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.21</v>
+        <v>3.42</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Faisaly SC</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +562,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dunav Ruse  - Sportist Svoge: 17:00</t>
+          <t>Al-Faisaly SC  - Al-Ahli (Amman): 17:30</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.48</v>
+        <v>1.21</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Al-Faisaly SC</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -574,12 +578,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -593,32 +597,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LDU Quito - Sociedade Esportiva Palmeiras X: 3:0</t>
+          <t>Llanelli Town AFC - The New Saints ✓: 0:4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.4</v>
+        <v>2.41</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sociedade Esportiva Palmeiras</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -632,28 +636,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Llanelli Town AFC - The New Saints : 19:45</t>
+          <t>LDU Quito - Sociedade Esportiva Palmeiras X: 3:0</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Sociedade Esportiva Palmeiras</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>70%</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H6" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -667,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FC Aarau  - FC Wil 1900: 19:15</t>
+          <t>FC Aarau ✓ - FC Wil 1900: 2:0</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -686,12 +694,16 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -702,28 +714,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AC Milan  - Pisa Sporting Club: 19:45</t>
+          <t>Airbus UK Broughton ✓ - Y Rhyl 1879: 6:0</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.51</v>
+        <v>4.61</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Airbus UK Broughton</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>64%</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -737,28 +753,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wydad Casablanca  - Asante Kotoko SC: 20:00</t>
+          <t>Dunav Ruse ✓ - Sportist Svoge: 4:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.79</v>
+        <v>1.45</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wydad Casablanca</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>64%</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -772,28 +792,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Airbus UK Broughton  - Y Rhyl 1879: 20:00</t>
+          <t>Wydad Casablanca ✓ - Asante Kotoko SC: 5:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.33</v>
+        <v>0.79</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Airbus UK Broughton</t>
+          <t>Wydad Casablanca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>64%</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -807,15 +831,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Erbil SC - Al-Shorta SC : 15:00</t>
+          <t>AKAS Almaty - Kaspiy Aktau ✓: 1:2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Shorta SC</t>
+          <t>Kaspiy Aktau</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -823,15 +847,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>63%</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -842,28 +870,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Al-Abbassieh FC - Nejmeh SC : 13:00</t>
+          <t>SC União Torreense ✓ - UD Oliveirense: 3:2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.77</v>
+        <v>2.69</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nejmeh SC</t>
+          <t>SC União Torreense</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61%</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -877,31 +909,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FCSB  - UTA Arad: 23:00</t>
+          <t>Erbil SC - Al-Shorta SC X: 1:0</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.55</v>
+        <v>2.73</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Al-Shorta SC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H13" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -912,28 +948,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SC União Torreense  - UD Oliveirense: 18:45</t>
+          <t>Al-Abbassieh FC - Nejmeh SC : 13:00</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.56</v>
+        <v>1.77</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SC União Torreense</t>
+          <t>Nejmeh SC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -947,15 +983,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AD Isidro Metapán  - CD Cacahuatique: 23:00</t>
+          <t>FCSB  - UTA Arad: 23:00</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AD Isidro Metapán</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -963,7 +999,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -982,31 +1018,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam U21  - FC Emmen: 19:00</t>
+          <t>Shakhter Karaganda ✓ - FC Turkistan: 3:0</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.77</v>
+        <v>3.51</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam U21</t>
+          <t>Shakhter Karaganda</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1017,28 +1057,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B71 Sandoy  - ÍF Fuglafjördur: 23:00</t>
+          <t>AC Milan  - Pisa Sporting Club: 2:2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.41</v>
+        <v>1.58</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>B71 Sandoy</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1052,15 +1092,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NSÍ Runavík  - KÍ Klaksvík: 23:00</t>
+          <t>HNK Gorica - HNK Hajduk Split ✓: 1:3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.8</v>
+        <v>2.08</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NSÍ Runavík</t>
+          <t>HNK Hajduk Split</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1068,12 +1108,16 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1087,28 +1131,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LD Alajuelense  - CD Olimpia: 03:00</t>
+          <t>AD Isidro Metapán  - CD Cacahuatique: 23:00</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LD Alajuelense</t>
+          <t>AD Isidro Metapán</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1122,15 +1166,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Örgryte IS - Västerås SK : 18:00</t>
+          <t>Ajax Amsterdam U21 X - FC Emmen: 0:1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Västerås SK</t>
+          <t>Ajax Amsterdam U21</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1138,15 +1182,19 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H20" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1157,31 +1205,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Vipers SC  - Uganda People's Defence Force FC: 17:00</t>
+          <t>FK Sarajevo ✓ - FK Sloga Meridian: 1:0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Vipers SC</t>
+          <t>FK Sarajevo</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1192,15 +1244,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aarhus GF  - FC Nordsjaelland: 18:00</t>
+          <t>B71 Sandoy  - ÍF Fuglafjördur: 23:00</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Aarhus GF</t>
+          <t>B71 Sandoy</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1208,12 +1260,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1227,31 +1279,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax FCS  - FC Rapperswil-Jona: 18:30</t>
+          <t>FC Ekibastuz - Irtysh Pavlodar ✓: 1:2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.2</v>
+        <v>3.08</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax FCS</t>
+          <t>Irtysh Pavlodar</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1262,31 +1318,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Shakhter Karaganda  - FC Turkistan: 11:00</t>
+          <t>Aarhus GF ✓ - FC Nordsjaelland: 1:0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.47</v>
+        <v>2.32</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Shakhter Karaganda</t>
+          <t>Aarhus GF</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>48%</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H24" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1297,15 +1357,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Annagh United FC  - Warrenpoint Town FC: 19:45</t>
+          <t>Örgryte IS - Västerås SK ✓: 0:2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Annagh United FC</t>
+          <t>Västerås SK</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1313,15 +1373,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>48%</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H25" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1332,23 +1396,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FK Radnicki Nis - Red Star Belgrade : 23:00</t>
+          <t>NSÍ Runavík  - KÍ Klaksvík: 23:00</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.48</v>
+        <v>2.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>NSÍ Runavík</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1367,31 +1431,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Caerau Ely  - Trefelin Boys &amp; Girls Club: 19:30</t>
+          <t>St. Patrick's Athletic  - Waterford FC: 1:1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.49</v>
+        <v>1.97</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Caerau Ely</t>
+          <t>St. Patrick's Athletic</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1402,15 +1466,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>St. Patrick's Athletic  - Waterford FC: 19:45</t>
+          <t>Spartak Pleven - Yantra Gabrovo ✓: 1:2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>St. Patrick's Athletic</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1418,12 +1482,16 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H28" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -1437,28 +1505,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Al-Ittihad Club - Al-Hilal SFC : 19:00</t>
+          <t>LD Alajuelense  - CD Olimpia: 03:00</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.07</v>
+        <v>0.77</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Al-Hilal SFC</t>
+          <t>LD Alajuelense</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -1472,28 +1540,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Víkingur Gøta - HB Tórshavn : 23:00</t>
+          <t>Vipers SC  - Uganda People's Defence Force FC: 17:00</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.69</v>
+        <v>2.05</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HB Tórshavn</t>
+          <t>Vipers SC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1507,15 +1575,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nasarawa United  - Remo Stars FC: 16:00</t>
+          <t>Kolding IF ✓ - Middelfart Boldklub: 1:0</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nasarawa United</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1523,15 +1591,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H31" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1542,28 +1614,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NEOM SC  - Al-Khaleej FC: 16:30</t>
+          <t>Maccabi Herzliya  - SC Kfar Qasem: 1:1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.53</v>
+        <v>1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NEOM SC</t>
+          <t>Maccabi Herzliya</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1577,15 +1649,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FK Sarajevo  - FK Sloga Meridian: 17:00</t>
+          <t>Altay Oskemen ✓ - Akademia Ontustik Shymkent: 4:1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FK Sarajevo</t>
+          <t>Altay Oskemen</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1593,12 +1665,16 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>39%</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H33" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1612,31 +1688,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HNK Gorica - HNK Hajduk Split : 17:00</t>
+          <t>Neuchâtel Xamax FCS ✓ - FC Rapperswil-Jona: 2:1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HNK Hajduk Split</t>
+          <t>Neuchâtel Xamax FCS</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>38%</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H34" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1647,15 +1727,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Universidad de Concepción  - Deportes Temuco: 23:30</t>
+          <t>Annagh United FC  - Warrenpoint Town FC: 19:45</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.16</v>
+        <v>1.96</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Universidad de Concepción</t>
+          <t>Annagh United FC</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1663,12 +1743,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1682,28 +1762,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Arbaminch Ketema FC  - Bahirdar Ketema SC: 11:00</t>
+          <t>FK Radnicki Nis - Red Star Belgrade : 23:00</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.99</v>
+        <v>3.48</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Arbaminch Ketema FC</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -1717,31 +1797,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FC Liefering - SKN St. Pölten : 17:00</t>
+          <t>Al-Ittihad Club - Al-Hilal SFC ✓: 0:2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SKN St. Pölten</t>
+          <t>Al-Hilal SFC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>36%</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H37" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1752,15 +1836,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FC Schalke 04  - SV Darmstadt 98: 17:30</t>
+          <t>Hapoel Afula - Maccabi Petah Tikva ✓: 2:3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FC Schalke 04</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1768,12 +1852,16 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H38" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -1787,15 +1875,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FK Minsk  - FK Smorgon: 16:00</t>
+          <t>Víkingur Gøta - HB Tórshavn : 23:00</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FK Minsk</t>
+          <t>HB Tórshavn</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1803,12 +1891,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -1822,28 +1910,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>University College Dublin  - Bray Wanderers: 19:45</t>
+          <t>FK Pohronie ✓ - MSK Povazska Bystrica: 4:0</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>University College Dublin</t>
+          <t>FK Pohronie</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>32%</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H40" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -1857,28 +1949,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kolding IF  - Middelfart Boldklub: 18:00</t>
+          <t>HNK Cibalia Vinkovci  - NK Hrvace: 2:2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.27</v>
+        <v>2.23</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>HNK Cibalia Vinkovci</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -1892,31 +1984,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Buckley Town - Llandudno FC : 19:45</t>
+          <t>Alashkert Yerevan FC ✓ - FC Van: 1:0</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Llandudno FC</t>
+          <t>Alashkert Yerevan FC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>31%</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H42" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1927,15 +2023,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Heart of Lions FC  - Basake Holy Stars FC: 16:00</t>
+          <t>Universidad de Concepción ✓ - Deportes Temuco: 3:2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Heart of Lions FC</t>
+          <t>Universidad de Concepción</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1943,12 +2039,16 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>31%</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H43" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -1962,15 +2062,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pau FC  - USL Dunkerque: 19:00</t>
+          <t>Port FC ✓ - Muangthong United: 1:0</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>Port FC</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1978,15 +2078,19 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>31%</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H44" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1997,28 +2101,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KF Vllaznia  - KF Tirana: 16:00</t>
+          <t>Arbaminch Ketema FC  - Bahirdar Ketema SC: 11:00</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>KF Vllaznia</t>
+          <t>Arbaminch Ketema FC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -2032,15 +2136,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vihren Sandanski  - Sevlievo: 23:00</t>
+          <t>Persepolis FC ✓ - Zob Ahan Esfahan: 2:0</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Vihren Sandanski</t>
+          <t>Persepolis FC</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2048,15 +2152,19 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2067,31 +2175,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SP Tre Penne - Tre Fiori FC : 20:15</t>
+          <t>Aluminium Arak FC  - Mes Rafsanjan: 0:0</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tre Fiori FC</t>
+          <t>Aluminium Arak FC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2102,31 +2210,35 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NK Olimpija Ljubljana  - NK Domzale: 23:00</t>
+          <t>Balestier Khalsa ✓ - Tanjong Pagar United: 2:1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.85</v>
+        <v>3.32</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NK Olimpija Ljubljana</t>
+          <t>Balestier Khalsa</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H48" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2137,31 +2249,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FC Alverca  - Gil Vicente FC: 20:15</t>
+          <t>NEOM SC  - Al-Khaleej FC: 1:1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.51</v>
+        <v>2.44</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FC Alverca</t>
+          <t>NEOM SC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="I49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2172,28 +2284,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>RKC Waalwijk - SC Cambuur Leeuwarden : 19:00</t>
+          <t>FC Schalke 04  - SV Darmstadt 98: 17:30</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.29</v>
+        <v>1.61</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SC Cambuur Leeuwarden</t>
+          <t>FC Schalke 04</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -2207,31 +2319,31 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FK FAP Priboj - FK Zemun : 23:00</t>
+          <t>HNK Orijent Rijeka  - NK Dugopolje: 1:1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.64</v>
+        <v>2.19</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FK Zemun</t>
+          <t>HNK Orijent Rijeka</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2242,15 +2354,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CD Platense Zacatecoluca - CD Luis Angel Firpo : 23:00</t>
+          <t>University College Dublin  - Bray Wanderers: 19:45</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.52</v>
+        <v>1.86</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CD Luis Angel Firpo</t>
+          <t>University College Dublin</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2258,12 +2370,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -2277,28 +2389,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B36 Tórshavn  - FC Suduroy: 23:00</t>
+          <t>Heart of Lions FC ✓ - Basake Holy Stars FC: 3:0</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.4</v>
+        <v>1.21</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>B36 Tórshavn</t>
+          <t>Heart of Lions FC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>28%</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H53" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -2312,28 +2428,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Hulbuk Vose - Vakhsh Bokhtar : 13:00</t>
+          <t>KF Vllaznia ✓ - KF Tirana: 3:1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.19</v>
+        <v>2.34</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Vakhsh Bokhtar</t>
+          <t>KF Vllaznia</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>28%</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H54" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -2347,31 +2467,35 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hallescher FC  - 1. FC Lokomotive Leipzig: 18:00</t>
+          <t>Le Mans FC ✓ - US Boulogne: 1:0</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.44</v>
+        <v>1.94</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Hallescher FC</t>
+          <t>Le Mans FC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H55" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2382,15 +2506,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FC Urartu Yerevan  - FC Shirak Gyumri: 16:00</t>
+          <t>SC Kiryat Yam X - Hapoel Hadera: 2:3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.07</v>
+        <v>2.47</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FC Urartu Yerevan</t>
+          <t>SC Kiryat Yam</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2398,12 +2522,16 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H56" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -2417,15 +2545,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NK Tabor Sezana - NK Brinje Grosuplje : 19:00</t>
+          <t>SP Tre Penne - Tre Fiori FC : 0:0</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NK Brinje Grosuplje</t>
+          <t>Tre Fiori FC</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2433,15 +2561,15 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2452,28 +2580,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo  - CD Real Tomayapo: 20:00</t>
+          <t>NK Olimpija Ljubljana  - NK Domzale: 23:00</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.22</v>
+        <v>1.84</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>NK Olimpija Ljubljana</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -2487,31 +2615,31 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fortaleza CEIF  - Asociación Deportivo Pasto: 00:00</t>
+          <t>RKC Waalwijk - SC Cambuur Leeuwarden : 19:00</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.03</v>
+        <v>2.29</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Fortaleza CEIF</t>
+          <t>SC Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2522,28 +2650,28 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ammanford AFC  - Cwmbran Celtic: 19:30</t>
+          <t>FK FAP Priboj - FK Zemun : 23:00</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4.06</v>
+        <v>1.64</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ammanford AFC</t>
+          <t>FK Zemun</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -2557,15 +2685,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Club Sporting Cristal - Universitario de Deportes ✓: 0:1</t>
+          <t>Graficar Belgrad X - FK Tekstilac Odzaci: 1:2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Universitario de Deportes</t>
+          <t>Graficar Belgrad</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2573,19 +2701,19 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>23%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2596,15 +2724,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CD FAS - Alianza FC : 23:00</t>
+          <t>CD Platense Zacatecoluca - CD Luis Angel Firpo : 23:00</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Alianza FC</t>
+          <t>CD Luis Angel Firpo</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2612,7 +2740,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>23%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2631,15 +2759,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Newcastle United Jets ✓ - Melbourne Victory: 5:2</t>
+          <t>B36 Tórshavn  - FC Suduroy: 23:00</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Newcastle United Jets</t>
+          <t>B36 Tórshavn</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2647,16 +2775,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -2670,31 +2794,35 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Grêmio Novorizontino  - Botafogo FC: 23:00</t>
+          <t>Hulbuk Vose - Vakhsh Bokhtar ✓: 0:2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.83</v>
+        <v>1.19</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Grêmio Novorizontino</t>
+          <t>Vakhsh Bokhtar</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H64" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2705,28 +2833,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Red Star FC  - Grenoble Foot 38: 19:00</t>
+          <t>KamAZ Naberezhnye Chelny ✓ - Enisey Krasnoyarsk: 5:0</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2.11</v>
+        <v>1.63</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Red Star FC</t>
+          <t>KamAZ Naberezhnye Chelny</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H65" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -2740,28 +2872,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JS Kairouanaise - Club Africain : 23:00</t>
+          <t>Newcastle United Jets ✓ - Melbourne Victory: 5:2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.12</v>
+        <v>2.44</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Club Africain</t>
+          <t>Newcastle United Jets</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H66" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -2775,28 +2911,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Modena FC  - FC Empoli: 19:30</t>
+          <t>Hallescher FC X - 1. FC Lokomotive Leipzig: 2:4</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.91</v>
+        <v>2.44</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Modena FC</t>
+          <t>Hallescher FC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H67" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
@@ -2810,15 +2950,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FK Pohronie  - MSK Povazska Bystrica: 16:00</t>
+          <t>FC Urartu Yerevan ✓ - FC Shirak Gyumri: 5:0</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2.17</v>
+        <v>2.07</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FK Pohronie</t>
+          <t>FC Urartu Yerevan</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2826,12 +2966,16 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H68" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -2845,15 +2989,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Le Mans FC  - US Boulogne: 19:00</t>
+          <t>Red Star FC ✓ - Grenoble Foot 38: 1:0</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Le Mans FC</t>
+          <t>Red Star FC</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2861,15 +3005,19 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>21%</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H69" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2880,15 +3028,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SC Heerenveen  - NAC Breda: 19:00</t>
+          <t>NK Tabor Sezana - NK Brinje Grosuplje ✓: 0:1</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SC Heerenveen</t>
+          <t>NK Brinje Grosuplje</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2896,15 +3044,19 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>21%</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H70" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2915,15 +3067,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Stade Reims  - ESTAC Troyes: 19:00</t>
+          <t>Modena FC ✓ - FC Empoli: 2:1</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.35</v>
+        <v>1.93</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Stade Reims</t>
+          <t>Modena FC</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2931,12 +3083,16 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>21%</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H71" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
@@ -2950,31 +3106,31 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sivasspor  - Hatayspor: 18:00</t>
+          <t>Stade Reims  - ESTAC Troyes: 0:0</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2.74</v>
+        <v>1.25</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Stade Reims</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2985,15 +3141,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FC Vizela  - FC Felgueiras 1932: 20:45</t>
+          <t>Fortaleza CEIF  - Asociación Deportivo Pasto: 00:00</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.51</v>
+        <v>1.03</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FC Vizela</t>
+          <t>Fortaleza CEIF</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3001,15 +3157,15 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3020,31 +3176,35 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sidama Bunna FC - Hawasa Ketema SC : 14:00</t>
+          <t>San Antonio Bulo Bulo X - CD Real Tomayapo: 0:2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.31</v>
+        <v>2.17</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Hawasa Ketema SC</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H74" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3055,15 +3215,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AF Elbasani  - FK Bylis: 16:00</t>
+          <t>FK Minsk  - FK Smorgon: 2:2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>AF Elbasani</t>
+          <t>FK Minsk</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3071,12 +3231,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
@@ -3090,31 +3250,35 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem - Roda JC Kerkrade : 19:00</t>
+          <t>Ammanford AFC ✓ - Cwmbran Celtic: 2:1</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2.1</v>
+        <v>4.06</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Roda JC Kerkrade</t>
+          <t>Ammanford AFC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H76" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3125,31 +3289,35 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EA Guingamp  - Clermont Foot 63: 19:00</t>
+          <t>Club Sporting Cristal - Universitario de Deportes ✓: 0:1</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2.41</v>
+        <v>1.57</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>EA Guingamp</t>
+          <t>Universitario de Deportes</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H77" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3160,15 +3328,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Paris FC  - FC Nantes: 19:45</t>
+          <t>CD FAS - Alianza FC : 23:00</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Alianza FC</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3176,12 +3344,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
@@ -3195,15 +3363,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FK Trayal Kruševac  - FK Kabel Novi Sad: 23:00</t>
+          <t>Grêmio Novorizontino  - Botafogo FC: 1:1</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.58</v>
+        <v>0.84</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>FK Trayal Kruševac</t>
+          <t>Grêmio Novorizontino</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3211,12 +3379,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
@@ -3230,15 +3398,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Foolad FC  - Shams Azar Qazvin: 16:30</t>
+          <t>JS Kairouanaise - Club Africain : 23:00</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.71</v>
+        <v>1.12</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Foolad FC</t>
+          <t>Club Africain</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3246,12 +3414,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -3265,31 +3433,35 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Preston North End - Sheffield United : 20:00</t>
+          <t>Leeds United ✓ - West Ham United: 2:1</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.05</v>
+        <v>2.09</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H81" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3300,15 +3472,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Znicz Pruszkow  - Puszcza Niepolomice: 17:00</t>
+          <t>SC Heerenveen  - NAC Breda: 3:3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Znicz Pruszkow</t>
+          <t>SC Heerenveen</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3316,12 +3488,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
@@ -3335,31 +3507,35 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FC Marisca Mersch  - FC Koeppchen: 19:00</t>
+          <t>Nyva Ternopil X - Podillya Khmelnytskyi: 0:1</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2.28</v>
+        <v>1.34</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>FC Marisca Mersch</t>
+          <t>Nyva Ternopil</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H83" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3370,31 +3546,35 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sumsel United FC  - Adhyaksa FC Banten: 13:00</t>
+          <t>CSKA Sofia II ✓ - Fratria: 1:0</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.93</v>
+        <v>2.83</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sumsel United FC</t>
+          <t>CSKA Sofia II</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H84" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3405,31 +3585,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Al-Salt SC - Al-Ramtha SC : 17:30</t>
+          <t>Sivasspor  - Hatayspor: 1:1</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.31</v>
+        <v>2.68</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Al-Ramtha SC</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3440,28 +3620,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rivers United FC  - Ikorodu City FC: 16:00</t>
+          <t>NK Aluminij Kidricevo - NK Bravo ✓: 1:3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.97</v>
+        <v>2.5</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Rivers United FC</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H86" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -3475,15 +3659,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FK Novi Pazar  - FK Javor-Matis Ivanjica: 16:30</t>
+          <t>Karvan Yevlakh - Turan-Tovuz IK ✓: 1:2</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>FK Novi Pazar</t>
+          <t>Turan-Tovuz IK</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3491,12 +3675,16 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H87" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -3510,28 +3698,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Europa Point FC - Mons Calpe SC : 20:00</t>
+          <t>Kairat-Zhas ✓ - SD Family Astana: 5:1</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2.36</v>
+        <v>3.47</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Mons Calpe SC</t>
+          <t>Kairat-Zhas</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H88" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -3545,15 +3737,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KamAZ Naberezhnye Chelny  - Enisey Krasnoyarsk: 15:15</t>
+          <t>FC Vizela  - FC Felgueiras 1932: 2:2</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>KamAZ Naberezhnye Chelny</t>
+          <t>FC Vizela</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3561,12 +3753,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
@@ -3580,28 +3772,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KF Skënderbeu - KS Besa : 16:00</t>
+          <t>AF Elbasani ✓ - FK Bylis: 2:1</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.6</v>
+        <v>1.79</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>KS Besa</t>
+          <t>AF Elbasani</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H90" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -3615,31 +3811,35 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Boldklubben af 1893 - AC Horsens : 18:00</t>
+          <t>NK Sesvete X - NK Rudes: 0:1</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>AC Horsens</t>
+          <t>NK Sesvete</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H91" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3650,28 +3850,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Treaty United  - Cobh Ramblers FC: 19:45</t>
+          <t>Sidama Bunna FC - Hawasa Ketema SC : 14:00</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.06</v>
+        <v>1.33</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Hawasa Ketema SC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -3685,15 +3885,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Odra Opole  - Ruch Chorzow: 19:30</t>
+          <t>Hapoel Kfar Shalem X - Hapoel Kfar Saba: 1:3</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Hapoel Kfar Shalem</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3701,12 +3901,16 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H93" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -3720,28 +3924,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sports Club Villa Jogoo  - Police FC: 18:00</t>
+          <t>Vitesse Arnhem - Roda JC Kerkrade : 2:2</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Sports Club Villa Jogoo</t>
+          <t>Roda JC Kerkrade</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -3755,26 +3959,30 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Venados FC Yucatán - Tampico Madero : 1:1</t>
+          <t>Erzurumspor FK ✓ - Ümraniyespor: 2:0</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2.03</v>
+        <v>1.14</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Erzurumspor FK</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H95" t="n">
         <v>2</v>
       </c>
@@ -3790,28 +3998,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Pontypridd United - Cambrian United : 19:30</t>
+          <t>Buckley Town - Llandudno FC ✓: 2:3</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.24</v>
+        <v>2.87</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Cambrian United</t>
+          <t>Llandudno FC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H96" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -3825,31 +4037,35 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FK Radnik Surdulica  - FK Spartak Subotica: 23:00</t>
+          <t>CA Sarmiento (Junin) - CA Rosario Central ✓: 0:1</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>FK Radnik Surdulica</t>
+          <t>CA Rosario Central</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H97" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3860,15 +4076,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NK Aluminij Kidricevo - NK Bravo : 16:30</t>
+          <t>Pau FC X - USL Dunkerque: 0:3</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2.47</v>
+        <v>2.28</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -3876,15 +4092,19 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H98" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="I98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3895,31 +4115,35 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FC Stade Nyonnais - Yverdon Sport FC : 18:30</t>
+          <t>EA Guingamp X - Clermont Foot 63: 0:1</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.79</v>
+        <v>2.32</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Yverdon Sport FC</t>
+          <t>EA Guingamp</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H99" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3930,15 +4154,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Leeds United  - West Ham United: 20:00</t>
+          <t>FC Liefering - SKN St. Pölten X: 3:1</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2.08</v>
+        <v>2.79</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>SKN St. Pölten</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3946,12 +4170,16 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H100" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -3965,15 +4193,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SK Austria Klagenfurt  - SK Sturm Graz II: 17:00</t>
+          <t>Sports Club Villa Jogoo ✓ - Police FC: 2:1</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2.89</v>
+        <v>2.01</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SK Austria Klagenfurt</t>
+          <t>Sports Club Villa Jogoo</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -3981,15 +4209,19 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H101" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4000,28 +4232,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Plateau United FC  - Enyimba Aba: 16:00</t>
+          <t>FC Marisca Mersch ✓ - FC Koeppchen: 4:0</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.01</v>
+        <v>2.29</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Plateau United FC</t>
+          <t>FC Marisca Mersch</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H102" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -4035,28 +4271,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Katsina United FC  - El-Kanemi Warriors: 16:00</t>
+          <t>FC Alverca X - Gil Vicente FC: 0:4</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.54</v>
+        <v>1.56</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Katsina United FC</t>
+          <t>FC Alverca</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H103" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
@@ -4070,28 +4310,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SD Huesca - UD Las Palmas : 19:30</t>
+          <t>SV Stripfing ✓ - FC Hertha Wels: 4:3</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1.26</v>
+        <v>2.98</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>UD Las Palmas</t>
+          <t>SV Stripfing</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H104" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
@@ -4105,15 +4349,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Rangers International FC  - Kwara United FC: 16:00</t>
+          <t>Sumsel United FC X - Adhyaksa FC Banten: 1:2</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Rangers International FC</t>
+          <t>Sumsel United FC</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4121,12 +4365,16 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H105" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I105" t="b">
         <v>0</v>
@@ -4140,28 +4388,28 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FK Partizan Belgrade  - FK Mladost Lucani: 16:30</t>
+          <t>Al-Salt SC - Al-Ramtha SC : 17:30</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1.73</v>
+        <v>0.31</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>FK Partizan Belgrade</t>
+          <t>Al-Ramtha SC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -4175,15 +4423,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SV Werder Bremen  - 1.FC Union Berlin: 19:30</t>
+          <t>KF Iliria Fushë Krujë - KF Korabi X: 2:1</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2.21</v>
+        <v>2.57</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SV Werder Bremen</t>
+          <t>KF Korabi</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -4191,15 +4439,19 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H107" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="I107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -4210,28 +4462,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Pirin Blagoevgrad  - Etar Veliko Tarnovo: 23:00</t>
+          <t>Tikves Kavadarci X - Arsimi: 3:4</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1.33</v>
+        <v>2.82</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Pirin Blagoevgrad</t>
+          <t>Tikves Kavadarci</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H108" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -4245,28 +4501,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Denbigh Town  - Ruthin Town: 19:45</t>
+          <t>Europa Point FC - Mons Calpe SC ✓: 1:5</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3.89</v>
+        <v>2.36</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Denbigh Town</t>
+          <t>Mons Calpe SC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H109" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -4280,15 +4540,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FK Loznica  - FK Borac 1926 Cacak: 16:00</t>
+          <t>Kitara FC ✓ - Mbarara City FC: 3:2</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>FK Loznica</t>
+          <t>Kitara FC</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -4296,12 +4556,16 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H110" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
@@ -4315,31 +4579,35 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Baglan Dragons  - Treowen Stars: 19:30</t>
+          <t>Katsina United FC ✓ - El-Kanemi Warriors: 1:0</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Baglan Dragons</t>
+          <t>Katsina United FC</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H111" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="I111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4350,15 +4618,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Al-Jazeera Club (Jordan)  - Shabab Al-Ordon Club: 15:00</t>
+          <t>Madura United FC - Persija Jakarta ✓: 0:1</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Al-Jazeera Club (Jordan)</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -4366,15 +4634,19 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H112" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4385,31 +4657,35 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>First Vienna FC  - Admira Wacker: 17:00</t>
+          <t>KF Skënderbeu - KS Besa X: 1:0</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1.61</v>
+        <v>0.6</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>First Vienna FC</t>
+          <t>KS Besa</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H113" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4420,28 +4696,28 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Kun Khalifat Football Club  - Bendel Insurance: 16:00</t>
+          <t>Treaty United  - Cobh Ramblers FC: 19:45</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1.29</v>
+        <v>2.06</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Kun Khalifat Football Club</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I114" t="b">
         <v>0</v>
@@ -4455,31 +4731,31 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AS Soliman  - Jeunesse Sportive Omrane: 23:00</t>
+          <t>Odra Opole  - Ruch Chorzow: 1:1</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.78</v>
+        <v>1.44</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>AS Soliman</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4490,31 +4766,31 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FK Smederevo 1924  - OFK Vrsac: 23:00</t>
+          <t>Venados FC Yucatán  - Tampico Madero: 1:1</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>1.98</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>FK Smederevo 1924</t>
+          <t>Venados FC Yucatán</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -4525,15 +4801,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Club Atlético Belgrano X - AA Argentinos Juniors: 1:2</t>
+          <t>Foolad FC X - Shams Azar Qazvin: 0:1</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Club Atlético Belgrano</t>
+          <t>Foolad FC</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -4541,7 +4817,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4550,10 +4826,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4564,31 +4840,35 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>San Luis de Quillota  - Deportes Copiapó: 23:30</t>
+          <t>Boldklubben af 1893 - AC Horsens X: 1:0</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1.11</v>
+        <v>2.61</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>San Luis de Quillota</t>
+          <t>AC Horsens</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H118" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4599,23 +4879,23 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucharest - CS Universitatea Craiova : 23:00</t>
+          <t>FK Trayal Kruševac  - FK Kabel Novi Sad: 23:00</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2.03</v>
+        <v>0.74</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>CS Universitatea Craiova</t>
+          <t>FK Trayal Kruševac</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -4634,15 +4914,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FK Csikszereda Miercurea Ciuc  - Petrolul Ploiesti: 15:30</t>
+          <t>Pontypridd United - Cambrian United ✓: 2:4</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>FK Csikszereda Miercurea Ciuc</t>
+          <t>Cambrian United</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4650,12 +4930,16 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H120" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="I120" t="b">
         <v>0</v>
@@ -4669,15 +4953,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Helmond Sport  - FC Dordrecht: 19:00</t>
+          <t>First Vienna FC - Admira Wacker ✓: 1:3</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -4685,12 +4969,16 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H121" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I121" t="b">
         <v>0</v>
@@ -4704,15 +4992,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Galway United FC  - Drogheda United FC: 19:45</t>
+          <t>FK Radnik Surdulica  - FK Spartak Subotica: 23:00</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Galway United FC</t>
+          <t>FK Radnik Surdulica</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -4720,12 +5008,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I122" t="b">
         <v>0</v>
@@ -4739,15 +5027,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FC Utrecht U21  - TOP Oss: 19:00</t>
+          <t>FC Stade Nyonnais - Yverdon Sport FC : 2:2</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.35</v>
+        <v>1.79</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>FC Utrecht U21</t>
+          <t>Yverdon Sport FC</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -4755,12 +5043,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I123" t="b">
         <v>0</v>
@@ -4774,28 +5062,28 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FK IMT Belgrad  - OFK Beograd: 23:00</t>
+          <t>Plateau United FC  - Enyimba Aba: 16:00</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2.07</v>
+        <v>1.01</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>FK IMT Belgrad</t>
+          <t>Plateau United FC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I124" t="b">
         <v>0</v>
@@ -4809,23 +5097,23 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Gualberto Villarroel San José - The Strongest La Paz X: 3:2</t>
+          <t>FC Qizilqum - Dinamo Samarqand X: 2:0</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2.74</v>
+        <v>1.68</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>The Strongest La Paz</t>
+          <t>Dinamo Samarqand</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4834,10 +5122,10 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4848,15 +5136,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Spartak Varna  - Botev Plovdiv: 15:30</t>
+          <t>Al-Fateh SC ✓ - Al-Ettifaq FC: 2:1</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2.28</v>
+        <v>2.59</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Al-Fateh SC</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4864,15 +5152,19 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H126" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="I126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4883,23 +5175,23 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Portland Timbers ✓ - Real Salt Lake City: 3:1</t>
+          <t>Malavan Bandar Anzali ✓ - Esteghlal Khuzestan: 2:1</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1.62</v>
+        <v>0.9</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Malavan Bandar Anzali</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4908,7 +5200,7 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
@@ -4922,15 +5214,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Warri Wolves FC  - Bayelsa United: 16:00</t>
+          <t>Rangers International FC  - Kwara United FC: 16:00</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.37</v>
+        <v>0.89</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Warri Wolves FC</t>
+          <t>Rangers International FC</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4938,7 +5230,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -4957,15 +5249,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Arsenal Tula - Ural Yekaterinburg : 17:30</t>
+          <t>SD Huesca - UD Las Palmas : 1:1</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ural Yekaterinburg</t>
+          <t>UD Las Palmas</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4973,15 +5265,15 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4992,31 +5284,35 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo  - FK Cukaricki: 23:00</t>
+          <t>SV Werder Bremen ✓ - 1.FC Union Berlin: 1:0</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>SV Werder Bremen</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H130" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5027,31 +5323,31 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Etoile Sportive Metlaoui  - Avenir Sportif de Gabès: 23:00</t>
+          <t>Denbigh Town  - Ruthin Town: 2:2</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.57</v>
+        <v>3.83</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Etoile Sportive Metlaoui</t>
+          <t>Denbigh Town</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5062,28 +5358,28 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SV Stripfing  - FC Hertha Wels: 17:00</t>
+          <t>Pirin Blagoevgrad  - Etar Veliko Tarnovo: 23:00</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2.73</v>
+        <v>1.27</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>SV Stripfing</t>
+          <t>Pirin Blagoevgrad</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I132" t="b">
         <v>0</v>
@@ -5097,28 +5393,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Hadia Hosaina FC  - Ethio Electric SC: 14:00</t>
+          <t>Baglan Dragons X - Treowen Stars: 3:4</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Hadia Hosaina FC</t>
+          <t>Baglan Dragons</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H133" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I133" t="b">
         <v>0</v>
@@ -5132,15 +5432,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Gzira United FC  - Tarxien Rainbows: 20:00</t>
+          <t>Al-Jazeera Club (Jordan)  - Shabab Al-Ordon Club: 0:0</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Gzira United FC</t>
+          <t>Al-Jazeera Club (Jordan)</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -5148,15 +5448,15 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5167,15 +5467,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ethiopia Nigd Bank SA  - Sihul Shire FC: 17:00</t>
+          <t>FC Jetisay  - FC Taraz: 1:1</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1.02</v>
+        <v>1.78</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Ethiopia Nigd Bank SA</t>
+          <t>FC Jetisay</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -5183,15 +5483,15 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -5202,31 +5502,31 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>De Graafschap Doetinchem  - PSV Eindhoven U21: 19:00</t>
+          <t>Galway United FC  - Drogheda United FC: 1:1</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2.22</v>
+        <v>1.34</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>De Graafschap Doetinchem</t>
+          <t>Galway United FC</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -5237,15 +5537,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Persekat Tegal X - PSPS Pekanbaru: 2:3</t>
+          <t>FC Utrecht U21  - TOP Oss: 0:0</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Persekat Tegal</t>
+          <t>FC Utrecht U21</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -5253,19 +5553,15 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -5276,15 +5572,15 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Francs Borains - Jong KAA Gent : 19:00</t>
+          <t>KS Lushnja X - FK Apolonia: 0:1</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1.89</v>
+        <v>1.18</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Jong KAA Gent</t>
+          <t>KS Lushnja</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -5292,15 +5588,19 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H138" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -5311,28 +5611,32 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SU Dinamo Jug - FK Vozdovac : 23:00</t>
+          <t>Hapoel Rishon leZion - Hapoel Ramat Gan X: 4:1</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.95</v>
+        <v>1.92</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>FK Vozdovac</t>
+          <t>Hapoel Ramat Gan</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H139" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I139" t="b">
         <v>0</v>
@@ -5346,15 +5650,15 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SK Dynamo Ceske Budejovice  - 1.SK Prostejov: 17:00</t>
+          <t>Hapoel Raanana X - Maccabi Jaffa: 1:2</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.95</v>
+        <v>1.28</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SK Dynamo Ceske Budejovice</t>
+          <t>Hapoel Raanana</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -5362,12 +5666,16 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H140" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I140" t="b">
         <v>0</v>
@@ -5381,28 +5689,32 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Royal Charleroi SC - RSC Anderlecht : 19:45</t>
+          <t>Spartak Varna ✓ - Botev Plovdiv: 3:2</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1.82</v>
+        <v>2.41</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H141" t="n">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="I141" t="b">
         <v>0</v>
@@ -5416,28 +5728,28 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Carmarthen Town  - Afan Lido: 19:30</t>
+          <t>Kun Khalifat Football Club  - Bendel Insurance: 16:00</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2.72</v>
+        <v>1.29</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Carmarthen Town</t>
+          <t>Kun Khalifat Football Club</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I142" t="b">
         <v>0</v>
@@ -5451,15 +5763,15 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ACSC FC Arges - FC Dinamo 1948 : 18:30</t>
+          <t>AS Soliman  - Jeunesse Sportive Omrane: 23:00</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>FC Dinamo 1948</t>
+          <t>AS Soliman</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -5467,12 +5779,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I143" t="b">
         <v>0</v>
@@ -5486,15 +5798,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Motor Lublin  - Widzew Lodz: 19:30</t>
+          <t>FC Aktobe II ✓ - FC Khan Tengri: 3:1</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2.71</v>
+        <v>2.49</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>FC Aktobe II</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -5502,12 +5814,16 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H144" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="I144" t="b">
         <v>0</v>
@@ -5521,15 +5837,15 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Kano Pillars  - Niger Tornadoes: 16:00</t>
+          <t>FK Partizan Belgrade ✓ - FK Mladost Lucani: 3:0</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Kano Pillars</t>
+          <t>FK Partizan Belgrade</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -5537,12 +5853,16 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H145" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I145" t="b">
         <v>0</v>
@@ -5556,28 +5876,28 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Al-Fateh SC  - Al-Ettifaq FC: 15:45</t>
+          <t>FK Smederevo 1924  - OFK Vrsac: 23:00</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2.62</v>
+        <v>1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Al-Fateh SC</t>
+          <t>FK Smederevo 1924</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I146" t="b">
         <v>0</v>
@@ -5591,15 +5911,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Abia Warriors FC  - Barau Football Club: 16:00</t>
+          <t>Club Atlético Belgrano - AA Argentinos Juniors ✓: 1:2</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Abia Warriors FC</t>
+          <t>AA Argentinos Juniors</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5607,12 +5927,16 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H147" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I147" t="b">
         <v>0</v>
@@ -5626,15 +5950,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>KÍ Klaksvík II  - 07 Vestur II: 19:30</t>
+          <t>San Luis de Quillota  - Deportes Copiapó: 0:0</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.7</v>
+        <v>1.11</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>KÍ Klaksvík II</t>
+          <t>San Luis de Quillota</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -5642,15 +5966,15 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -5661,28 +5985,28 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Alianza FC  - CD La Equidad Seguros SA: 22:00</t>
+          <t>FC Metaloglobus Bucharest - CS Universitatea Craiova : 23:00</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Alianza FC</t>
+          <t>CS Universitatea Craiova</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I149" t="b">
         <v>0</v>
@@ -5696,15 +6020,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Olympique Beja - ES Zarzis : 23:00</t>
+          <t>FK Csikszereda Miercurea Ciuc  - Petrolul Ploiesti: 1:1</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ES Zarzis</t>
+          <t>FK Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -5712,15 +6036,15 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -5731,15 +6055,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CD Hércules  - Inter FA: 23:00</t>
+          <t>Helmond Sport X - FC Dordrecht: 1:2</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>CD Hércules</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -5747,12 +6071,16 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H151" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I151" t="b">
         <v>0</v>
@@ -5766,15 +6094,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NSÍ Runavík II - Víkingur Göta II : 19:00</t>
+          <t>SK Austria Klagenfurt  - SK Sturm Graz II: 0:0</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Víkingur Göta II</t>
+          <t>SK Austria Klagenfurt</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -5782,15 +6110,15 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -5801,31 +6129,35 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia  - Lokomotiv Plovdiv: 18:00</t>
+          <t>Ironi Modiin - Bnei Yehuda Tel Aviv X: 3:1</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1.48</v>
+        <v>3.08</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia</t>
+          <t>Bnei Yehuda Tel Aviv</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H153" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -5836,15 +6168,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>07 Vestur  - EB/Streymur: 23:00</t>
+          <t>Arsenal Tula - Ural Yekaterinburg ✓: 1:2</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>07 Vestur</t>
+          <t>Ural Yekaterinburg</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -5852,12 +6184,16 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H154" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I154" t="b">
         <v>0</v>
@@ -5871,28 +6207,32 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923 Kragujevac  - FK TSC Backa Topola: 23:00</t>
+          <t>Real Sociedad ✓ - Sevilla FC: 2:1</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923 Kragujevac</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H155" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I155" t="b">
         <v>0</v>
@@ -5906,28 +6246,28 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CD Palestino  - CD Everton: 21:00</t>
+          <t>FK IMT Belgrad  - OFK Beograd: 23:00</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>CD Palestino</t>
+          <t>FK IMT Belgrad</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I156" t="b">
         <v>0</v>
@@ -5941,15 +6281,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Bruk-Bet Termalica Nieciecza  - Zaglebie Lubin: 17:00</t>
+          <t>Gualberto Villarroel San José ✓ - The Strongest La Paz: 3:2</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2.92</v>
+        <v>2.79</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Bruk-Bet Termalica Nieciecza</t>
+          <t>Gualberto Villarroel San José</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -5957,12 +6297,16 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H157" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I157" t="b">
         <v>0</v>
@@ -5976,31 +6320,31 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Chernomorets 1919 Burgas  - Hebar Pazardzhik: 23:00</t>
+          <t>Chainat Hornbill FC  - Bangkok FC: 1:1</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2.87</v>
+        <v>1.46</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Chernomorets 1919 Burgas</t>
+          <t>Chainat Hornbill FC</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -6011,15 +6355,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Real Sociedad  - Sevilla FC: 20:00</t>
+          <t>Portland Timbers ✓ - Real Salt Lake City: 3:1</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -6027,12 +6371,16 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H159" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I159" t="b">
         <v>0</v>
@@ -6046,15 +6394,15 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Kyrgyzaltyn Kara-Balta  - FK Ilbirs Bishkek: 14:00</t>
+          <t>Paris FC X - FC Nantes: 1:2</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Kyrgyzaltyn Kara-Balta</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -6062,12 +6410,16 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H160" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I160" t="b">
         <v>0</v>
@@ -6081,28 +6433,28 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CD Fuerte San Francisco - CD Municipal Limeño : 23:00</t>
+          <t>Warri Wolves FC  - Bayelsa United: 16:00</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1.19</v>
+        <v>0.37</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>CD Municipal Limeño</t>
+          <t>Warri Wolves FC</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I161" t="b">
         <v>0</v>
@@ -6116,15 +6468,15 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PSBS Biak - Persebaya Surabaya : 0:0</t>
+          <t>CD Palestino ✓ - CD Everton: 2:1</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Persebaya Surabaya</t>
+          <t>CD Palestino</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -6132,15 +6484,19 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr"/>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -6151,15 +6507,15 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Almere City FC  - AZ Alkmaar U21: 19:00</t>
+          <t>Zeleznicar Pancevo  - FK Cukaricki: 23:00</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1.88</v>
+        <v>1.31</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Almere City FC</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -6167,12 +6523,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I163" t="b">
         <v>0</v>
@@ -6186,28 +6542,28 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ND Gorica  - NK Krka: 17:00</t>
+          <t>Etoile Sportive Metlaoui  - Avenir Sportif de Gabès: 23:00</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.06</v>
+        <v>0.57</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Etoile Sportive Metlaoui</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I164" t="b">
         <v>0</v>
@@ -6221,15 +6577,15 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NK Veres Rivne  - Zorya Lugansk: 16:00</t>
+          <t>Znicz Pruszkow X - Puszcza Niepolomice: 0:3</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>NK Veres Rivne</t>
+          <t>Znicz Pruszkow</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -6237,12 +6593,16 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H165" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I165" t="b">
         <v>0</v>
@@ -6256,28 +6616,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FC Eindhoven  - VVV-Venlo: 19:00</t>
+          <t>Preston North End - Sheffield United X: 3:2</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2.07</v>
+        <v>1.13</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H166" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I166" t="b">
         <v>0</v>
@@ -6291,15 +6655,15 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Wikki Tourists  - Shooting Stars Sports Club: 16:00</t>
+          <t>Hadia Hosaina FC  - Ethio Electric SC: 14:00</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Wikki Tourists</t>
+          <t>Hadia Hosaina FC</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -6307,12 +6671,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I167" t="b">
         <v>0</v>
@@ -6326,28 +6690,32 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FK Zvijezda 09  - FK Velez Nevesinje: 13:00</t>
+          <t>FK Novi Pazar X - FK Javor-Matis Ivanjica: 1:2</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2.94</v>
+        <v>1.74</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>FK Zvijezda 09</t>
+          <t>FK Novi Pazar</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H168" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I168" t="b">
         <v>0</v>
@@ -6361,28 +6729,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SpVgg Greuther Fürth  - Karlsruher SC: 17:30</t>
+          <t>Gzira United FC ✓ - Tarxien Rainbows: 3:1</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2.72</v>
+        <v>1.9</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SpVgg Greuther Fürth</t>
+          <t>Gzira United FC</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr"/>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H169" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="I169" t="b">
         <v>0</v>
@@ -6396,7 +6768,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Club Juan Pablo II College  - Comerciantes Unidos: 21:00</t>
+          <t>Ethiopia Nigd Bank SA  - Sihul Shire FC: 17:00</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -6404,7 +6776,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Club Juan Pablo II College</t>
+          <t>Ethiopia Nigd Bank SA</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -6412,12 +6784,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I170" t="b">
         <v>0</v>
@@ -6431,15 +6803,15 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Schwarz-Weiß Bregenz  - SV Kapfenberg: 17:00</t>
+          <t>De Graafschap Doetinchem ✓ - PSV Eindhoven U21: 3:2</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2.96</v>
+        <v>2.23</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Schwarz-Weiß Bregenz</t>
+          <t>De Graafschap Doetinchem</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -6447,12 +6819,16 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H171" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I171" t="b">
         <v>0</v>
@@ -6466,15 +6842,15 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük  - Kayserispor: 18:00</t>
+          <t>Persekat Tegal X - PSPS Pekanbaru: 2:3</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Persekat Tegal</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -6482,12 +6858,16 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H172" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I172" t="b">
         <v>0</v>
@@ -6501,15 +6881,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RFC Seraing  - K Lierse SK: 19:00</t>
+          <t>FK Loznica ✓ - FK Borac 1926 Cacak: 2:0</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RFC Seraing</t>
+          <t>FK Loznica</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -6517,15 +6897,19 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H173" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -6536,28 +6920,28 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SC Bastia  - Stade Lavallois: 19:00</t>
+          <t>SU Dinamo Jug - FK Vozdovac : 23:00</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1.28</v>
+        <v>0.95</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>SC Bastia</t>
+          <t>FK Vozdovac</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I174" t="b">
         <v>0</v>
@@ -6571,28 +6955,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Mosta FC - Zabbar St. Patrick FC : 17:15</t>
+          <t>FK Usce Novi Beograd - FK Macva Sabac ✓: 1:2</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2.61</v>
+        <v>0.93</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Zabbar St. Patrick FC</t>
+          <t>FK Macva Sabac</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H175" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="I175" t="b">
         <v>0</v>
@@ -6606,28 +6994,32 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FK Viagem Usti nad Labem - FC Banik Ostrava B : 17:00</t>
+          <t>FK Napredak Krusevac - FK Vojvodina Novi Sad ✓: 1:4</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>FC Banik Ostrava B</t>
+          <t>FK Vojvodina Novi Sad</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H176" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I176" t="b">
         <v>0</v>
@@ -6641,15 +7033,15 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Belasitsa Petrich  - Marek Dupnitsa: 23:00</t>
+          <t>Panjsher Balkh - FK Khujand : 2:2</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1.12</v>
+        <v>1.47</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Belasitsa Petrich</t>
+          <t>FK Khujand</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -6657,12 +7049,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I177" t="b">
         <v>0</v>
@@ -6676,30 +7068,1693 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
+          <t>SK Dynamo Ceske Budejovice ✓ - 1.SK Prostejov: 1:0</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>SK Dynamo Ceske Budejovice</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Carmarthen Town ✓ - Afan Lido: 1:0</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Carmarthen Town</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ACSC FC Arges - FC Dinamo 1948 : 1:1</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>FC Dinamo 1948</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Motor Lublin ✓ - Widzew Lodz: 3:0</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Motor Lublin</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Kano Pillars  - Niger Tornadoes: 16:00</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Kano Pillars</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>16</v>
+      </c>
+      <c r="I182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>KF Vora - FC Dinamo City ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>FC Dinamo City</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka - Yunnan Yukun ✓: 1:4</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+      <c r="I184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Chadormalu SC ✓ - Kheybar Khorramabad FC: 2:1</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Chadormalu SC</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+      <c r="I185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Abia Warriors FC  - Barau Football Club: 16:00</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Abia Warriors FC</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>16</v>
+      </c>
+      <c r="I186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Bashkimi ✓ - FC Shkupi: 4:1</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Bashkimi</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+      <c r="I187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>KÍ Klaksvík II ✓ - 07 Vestur II: 1:0</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>KÍ Klaksvík II</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Alianza FC ✓ - CD La Equidad Seguros SA: 2:0</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Alianza FC</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Olympique Beja - ES Zarzis : 23:00</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>ES Zarzis</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>23</v>
+      </c>
+      <c r="I190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>FC Oleksandriya - Epicentr Kamyanets-Podilskyi ✓: 0:1</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Epicentr Kamyanets-Podilskyi</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>CD Hércules  - Inter FA: 23:00</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>CD Hércules</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>23</v>
+      </c>
+      <c r="I192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Royal Charleroi SC - RSC Anderlecht X: 1:0</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Lokomotiv Sofia  - Lokomotiv Plovdiv: 2:2</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Lokomotiv Sofia</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>4</v>
+      </c>
+      <c r="I194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>NSÍ Runavík II - Víkingur Göta II : 19:00</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Víkingur Göta II</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>19</v>
+      </c>
+      <c r="I195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>07 Vestur  - EB/Streymur: 23:00</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>07 Vestur</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>23</v>
+      </c>
+      <c r="I196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>FK Radnicki 1923 Kragujevac  - FK TSC Backa Topola: 23:00</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>FK Radnicki 1923 Kragujevac</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>23</v>
+      </c>
+      <c r="I197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Kapaz PFK - FC Imishli ✓: 0:3</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>FC Imishli</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+      <c r="I198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Bruk-Bet Termalica Nieciecza  - Zaglebie Lubin: 1:1</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Bruk-Bet Termalica Nieciecza</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Francs Borains ✓ - Jong KAA Gent: 2:0</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Francs Borains</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Kyrgyzaltyn Kara-Balta  - FK Ilbirs Bishkek: 1:1</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Kyrgyzaltyn Kara-Balta</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>CD Fuerte San Francisco - CD Municipal Limeño : 23:00</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>CD Municipal Limeño</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="n">
+        <v>23</v>
+      </c>
+      <c r="I202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Kelantan The Real Warriors ✓ - Melaka FC: 2:1</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Kelantan The Real Warriors</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>3</v>
+      </c>
+      <c r="I203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>CA Independiente ✓ - Club Atlético Platense: 3:0</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>3</v>
+      </c>
+      <c r="I204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Almere City FC X - AZ Alkmaar U21: 1:3</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Almere City FC</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>4</v>
+      </c>
+      <c r="I205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>SpVgg Greuther Fürth - Karlsruher SC ✓: 1:4</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>5</v>
+      </c>
+      <c r="I206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>NK Veres Rivne  - Zorya Lugansk: 0:0</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>NK Veres Rivne</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>FC Eindhoven X - VVV-Venlo: 0:1</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Wikki Tourists  - Shooting Stars Sports Club: 16:00</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Wikki Tourists</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="n">
+        <v>16</v>
+      </c>
+      <c r="I209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>FK Zvijezda 09  - FK Velez Nevesinje: 13:00</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>FK Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="n">
+        <v>13</v>
+      </c>
+      <c r="I210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ND Gorica X - NK Krka: 1:3</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>4</v>
+      </c>
+      <c r="I211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük  - Kayserispor: 2:2</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="n">
+        <v>4</v>
+      </c>
+      <c r="I212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Hapoel Nof HaGalil  - Hapoel Acre: 1:1</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Hapoel Nof HaGalil</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="n">
+        <v>2</v>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Club Juan Pablo II College X - Comerciantes Unidos: 0:1</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Club Juan Pablo II College</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz  - SV Kapfenberg: 1:1</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="n">
+        <v>2</v>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>RFC Seraing  - K Lierse SK: 1:1</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="n">
+        <v>2</v>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>FK Dubocica Leskovac  - FK Jedinstvo Ub: 0:0</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>FK Dubocica Leskovac</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>PSBS Biak - Persebaya Surabaya : 0:0</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Persebaya Surabaya</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Montana - Arda Kardzhali : 1:1</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Arda Kardzhali</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="n">
+        <v>2</v>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns X - Shenzhen Peng City: 1:2</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>3</v>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Mosta FC - Zabbar St. Patrick FC : 1:1</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Zabbar St. Patrick FC</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="n">
+        <v>2</v>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>FK Viagem Usti nad Labem - FC Banik Ostrava B X: 4:1</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>FC Banik Ostrava B</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>5</v>
+      </c>
+      <c r="I222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Fri Oct 24</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
           <t>TB Tvøroyri - B68 Toftir : 23:00</t>
         </is>
       </c>
-      <c r="C178" t="n">
+      <c r="C223" t="n">
         <v>2.9</v>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D223" t="inlineStr">
         <is>
           <t>B68 Toftir</t>
         </is>
       </c>
-      <c r="E178" t="n">
+      <c r="E223" t="n">
         <v>3.5</v>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>1%</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="n">
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="n">
         <v>23</v>
       </c>
-      <c r="I178" t="b">
+      <c r="I223" t="b">
         <v>0</v>
       </c>
     </row>
